--- a/public/templateExcel/template-import-peminjaman.xlsx
+++ b/public/templateExcel/template-import-peminjaman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah Ryan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9293C6-2C18-4725-87C8-AF2922DE75B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6D1B8-AF60-4355-9E7C-B92EEF24A84C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="2685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="2685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contoh penulisan" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>Dipinjam</t>
   </si>
@@ -134,9 +134,6 @@
     <t>2024-06-13 16:15:26</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>sebelum memasukan data alangkah baiknya untuk membaca tata cara penulisan dan format yang sudah dintentukan untuk menghindari adanya kesalahan data dan sistem</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>jumlah</t>
   </si>
   <si>
-    <t>waktu meminjam</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -173,32 +167,65 @@
     <t>isikan nama peminjam</t>
   </si>
   <si>
-    <t>isikan dengan id nama penanggung jawab yang didapatkan dari hasil eksport laporran</t>
-  </si>
-  <si>
     <t>isikan dengan nama kelas</t>
   </si>
   <si>
-    <t>isikan dengan nama barang yang didaptkan dari hasil eksport laporan</t>
-  </si>
-  <si>
     <t>isikan jumlah peminjaman</t>
   </si>
   <si>
-    <t>isikan tanggal pada saat pembelian, dan isikan dengan format "Text" dan tulis dengan urutan mulai dari tahun-bulan-tanggal</t>
-  </si>
-  <si>
     <t>isikan keterangan dengan keperuntukan barang/aset tersebut atau bisa yang lainnya yang berkaitan.</t>
   </si>
   <si>
     <t>isikan status dengan "Dikembalikan atau Dipinjam" pastikan penulisannya persis seperti berikut.</t>
+  </si>
+  <si>
+    <t>isikan dengan id nama penanggung jawab yang bisa didapatkan dari hasil eksport laporan excel peminjaman</t>
+  </si>
+  <si>
+    <t>isikan dengan id nama barang/aset yang didapatkan dari hasil eksport laporan excel aset</t>
+  </si>
+  <si>
+    <t>berita acara</t>
+  </si>
+  <si>
+    <t>kondisi dipinjam</t>
+  </si>
+  <si>
+    <t>kondisi dikembalikan</t>
+  </si>
+  <si>
+    <t>waktu memenjam</t>
+  </si>
+  <si>
+    <t>isikan kondisi dipinjam dengan "Bagus,Rusak Sedang, Rusak Berat" pastikan penulisannya persis seperti itu dan pilih salah satunya</t>
+  </si>
+  <si>
+    <t>isikan kondisi dikembalikan dengan "Bagus,Rusak Sedang, Rusak Berat" pastikan penulisannya persis seperti itu dan pilih salah satunya</t>
+  </si>
+  <si>
+    <t>isikan tanggal pada saat peminjaman, dan isikan dengan format "Text" dan tulis dengan urutan mulai dari tahun-bulan-tanggal jam:menit:detik</t>
+  </si>
+  <si>
+    <t>isikan tanggal pada saat pembelian, dan isikan dengan format "Text" dan tulis dengan urutan mulai dari tahun-bulan-tanggal jam:menit:detik</t>
+  </si>
+  <si>
+    <t>kosongkan isian berita acara, apabila ada berita acara pilih edit pada list peminjaman</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Rusak Sedang</t>
+  </si>
+  <si>
+    <t>Rusak Berat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -214,16 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +340,30 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -328,48 +374,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="9" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="14" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="14" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
     <cellStyle name="60% - Accent3" xfId="7" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="13" builtinId="48"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent3" xfId="6" builtinId="37"/>
@@ -592,10 +649,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,349 +661,418 @@
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="20">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="20">
         <v>11</v>
       </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="20">
+        <v>1</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="20">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="20">
+        <v>12</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="20">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="20">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="20">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="20">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="20">
+        <v>12</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="20">
+        <v>12</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="20">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="20">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="20">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="20">
+        <v>12</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="20">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="20">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="20">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="20">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="20">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="20">
+        <v>12</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" s="20">
+        <v>12</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="K10" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="20">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="20">
+        <v>12</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="20">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L16" t="s">
-        <v>37</v>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -957,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F3061F-ECF1-47E4-8469-2BE50E9FC1DA}">
-  <dimension ref="D1:P31"/>
+  <dimension ref="D1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -969,460 +1095,582 @@
     <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="D1" s="16" t="s">
+    <row r="1" spans="4:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="D1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="5" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="5" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="10" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D10" s="8" t="s">
+    <row r="13" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="20"/>
+    </row>
+    <row r="21" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="2">
         <v>11</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="4">
         <v>11</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="M21" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
+      <c r="N21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="4">
-        <v>12</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="G22" s="4">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D22" s="3" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="2">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="4">
         <v>13</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="M23" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D23" s="3" t="s">
+      <c r="N23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="2">
         <v>11</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="4">
         <v>11</v>
       </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="M24" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D24" s="3" t="s">
+      <c r="N24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4">
-        <v>12</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E25" s="2">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="6">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="G25" s="4">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="L25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="M25" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D25" s="3" t="s">
+      <c r="N25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="2">
         <v>13</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="4">
         <v>13</v>
       </c>
-      <c r="H25" s="7">
-        <v>12</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="H26" s="5">
+        <v>12</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="M26" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D26" s="3" t="s">
+      <c r="N26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="4">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="6">
-        <v>12</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="G27" s="4">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="2">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="4">
         <v>13</v>
       </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="L28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="M28" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
+      <c r="N28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="2">
         <v>14</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="4">
         <v>14</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="L29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="M29" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
+      <c r="N29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="4">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="E30" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="6">
-        <v>12</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="G30" s="4">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="L30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="M30" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="N30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2">
         <v>11</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="4">
         <v>11</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="L31" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="M31" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="4:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
+      <c r="N31" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="4:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4">
-        <v>12</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="6">
-        <v>12</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="G32" s="4">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="K32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="12"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
